--- a/repositories/Autoformer/notebooks/01.metrics.xlsx
+++ b/repositories/Autoformer/notebooks/01.metrics.xlsx
@@ -2429,27 +2429,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.366</t>
+          <t>0.353</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.401</t>
+          <t>0.390</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.605</t>
+          <t>0.594</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.859</t>
+          <t>13.846</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
@@ -2467,27 +2467,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.434</t>
+          <t>0.421</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.441</t>
+          <t>0.430</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.659</t>
+          <t>0.649</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13.313</t>
+          <t>11.652</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>3.000</t>
         </is>
       </c>
     </row>
